--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>457.6436660619003</v>
+        <v>457.6696834418745</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.25010629068117</v>
+        <v>10.25012331803224</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.9014813414022</v>
+        <v>539.9011315842564</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>961.3901091493797</v>
+        <v>961.3894203612716</v>
       </c>
       <c r="E5" t="n">
-        <v>467.8937723525814</v>
+        <v>467.9198067599067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787307466950467</v>
+        <v>0.7787308313546171</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211495965662484</v>
+        <v>0.1211497341578395</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03145530445892344</v>
+        <v>0.03145523134166894</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06211630831508141</v>
+        <v>0.06211616177309592</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548043964700032</v>
+        <v>0.006548041372778512</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.3205242008121</v>
+        <v>465.3209366107786</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>876.0765663416099</v>
+        <v>876.0767568274671</v>
       </c>
       <c r="E6" t="n">
-        <v>467.8937723525814</v>
+        <v>467.9198067599067</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787307466950467</v>
+        <v>0.7787308313546171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211495965662484</v>
+        <v>0.1211497341578395</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03145530445892344</v>
+        <v>0.03145523134166894</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06211630831508141</v>
+        <v>0.06211616177309592</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548043964700032</v>
+        <v>0.006548041372778512</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.0859991120989</v>
+        <v>295.0926986220944</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.8585590982448</v>
+        <v>686.8655980938008</v>
       </c>
       <c r="E7" t="n">
-        <v>467.8937723525814</v>
+        <v>467.9198067599067</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787307466950467</v>
+        <v>0.7787308313546171</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211495965662484</v>
+        <v>0.1211497341578395</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03145530445892344</v>
+        <v>0.03145523134166894</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06211630831508141</v>
+        <v>0.06211616177309592</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548043964700032</v>
+        <v>0.006548041372778512</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.4042783401775</v>
+        <v>227.4096801255538</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.6641364338367</v>
+        <v>613.6696828365741</v>
       </c>
       <c r="E8" t="n">
-        <v>467.8937723525814</v>
+        <v>467.9198067599067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787307466950467</v>
+        <v>0.7787308313546171</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211495965662484</v>
+        <v>0.1211497341578395</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03145530445892344</v>
+        <v>0.03145523134166894</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06211630831508141</v>
+        <v>0.06211616177309592</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548043964700032</v>
+        <v>0.006548041372778512</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.483374999465</v>
+        <v>226.4887680715567</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.6754104248741</v>
+        <v>612.6809464812903</v>
       </c>
       <c r="E9" t="n">
-        <v>467.8937723525814</v>
+        <v>467.9198067599067</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787307466950467</v>
+        <v>0.7787308313546171</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211495965662484</v>
+        <v>0.1211497341578395</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03145530445892344</v>
+        <v>0.03145523134166894</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06211630831508141</v>
+        <v>0.06211616177309592</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548043964700032</v>
+        <v>0.006548041372778512</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.0171077411876</v>
+        <v>167.019267458314</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1968667066177</v>
+        <v>549.1989114078502</v>
       </c>
       <c r="E10" t="n">
-        <v>467.8937723525814</v>
+        <v>467.9198067599067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787307466950467</v>
+        <v>0.7787308313546171</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211495965662484</v>
+        <v>0.1211497341578395</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03145530445892344</v>
+        <v>0.03145523134166894</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06211630831508141</v>
+        <v>0.06211616177309592</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548043964700032</v>
+        <v>0.006548041372778512</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.1058455711541</v>
+        <v>102.1117521505182</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.6208231298362</v>
+        <v>480.6267919202263</v>
       </c>
       <c r="E11" t="n">
-        <v>467.8937723525814</v>
+        <v>467.9198067599067</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787307466950467</v>
+        <v>0.7787308313546171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211495965662484</v>
+        <v>0.1211497341578395</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03145530445892344</v>
+        <v>0.03145523134166894</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06211630831508141</v>
+        <v>0.06211616177309592</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548043964700032</v>
+        <v>0.006548041372778512</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.716168446777885</v>
+        <v>9.716184587157949</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.533937843903289</v>
+        <v>0.5339387308742981</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.57203270473134</v>
+        <v>3.572037215500907</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944157</v>
+        <v>0.05094889585944169</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489642</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173059</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6563482549402369</v>
+        <v>0.6563276098278441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6867332201308107</v>
+        <v>0.6867209104446607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9557543390943195</v>
+        <v>0.9557414079656662</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.24900452923227</v>
+        <v>54.24768868002367</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.11957867883113</v>
+        <v>34.11974234679946</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849091375887235</v>
+        <v>0.8490909384092191</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.47339959240582</v>
+        <v>13.47326891839024</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7954818127017232</v>
+        <v>0.7954738200791613</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.436574213431072</v>
+        <v>5.435841790388622</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7889626799937762</v>
+        <v>0.7889722349802617</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.219452044564253</v>
+        <v>1.218835624445348</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.359027417485981</v>
+        <v>0.3589431234459587</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1166371141027329</v>
+        <v>0.116613860416427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.130126843898026</v>
+        <v>0.1301011006080568</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8963339969586572</v>
+        <v>0.8963326203345384</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42025.43410883983</v>
+        <v>42022.41089496908</v>
       </c>
       <c r="C2" t="n">
-        <v>42449.93344327255</v>
+        <v>42446.87969188796</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91605.29376404439</v>
+        <v>91610.46788150251</v>
       </c>
       <c r="C3" t="n">
-        <v>92530.599761661</v>
+        <v>92535.82614293182</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39938.34177953236</v>
+        <v>39940.62122372127</v>
       </c>
       <c r="C4" t="n">
-        <v>40341.75937326501</v>
+        <v>40344.06184214269</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.2725813765202</v>
+        <v>516.269174409505</v>
       </c>
       <c r="C5" t="n">
-        <v>521.487455935879</v>
+        <v>521.4840145550555</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33330.78154386958</v>
+        <v>33329.18875527467</v>
       </c>
       <c r="C6" t="n">
-        <v>33667.45610491877</v>
+        <v>33665.84722755017</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37599.08863272336</v>
+        <v>37595.94760862255</v>
       </c>
       <c r="C7" t="n">
-        <v>37978.87740679127</v>
+        <v>37975.70465517429</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.0979739956442</v>
+        <v>55.10199970648721</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.73567494544695</v>
+        <v>80.73185080591111</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.117813770875832</v>
+        <v>7.117612199568666</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.9020895677181</v>
+        <v>513.8994192165705</v>
       </c>
       <c r="C3" t="n">
-        <v>6.770879091720035</v>
+        <v>6.77152569453363</v>
       </c>
       <c r="D3" t="n">
-        <v>3447.574924295575</v>
+        <v>3447.560796852628</v>
       </c>
       <c r="E3" t="n">
-        <v>58.39614151335076</v>
+        <v>58.39508430682083</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.1198189111691</v>
+        <v>287.1264119077413</v>
       </c>
       <c r="C4" t="n">
-        <v>7.134527691493913</v>
+        <v>7.13521974069665</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.863525081132</v>
+        <v>2770.854348478276</v>
       </c>
       <c r="E4" t="n">
-        <v>58.39614151335076</v>
+        <v>58.39508430682083</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.2684107684306</v>
+        <v>286.2763793972927</v>
       </c>
       <c r="C5" t="n">
-        <v>7.134527691493913</v>
+        <v>7.13521974069665</v>
       </c>
       <c r="D5" t="n">
-        <v>1269.937192880025</v>
+        <v>1269.979783888431</v>
       </c>
       <c r="E5" t="n">
-        <v>58.39614151335076</v>
+        <v>58.39508430682083</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.3271166869152</v>
+        <v>162.3304983328471</v>
       </c>
       <c r="C6" t="n">
-        <v>7.134527691493913</v>
+        <v>7.13521974069665</v>
       </c>
       <c r="D6" t="n">
-        <v>689.3483565851049</v>
+        <v>689.3633680473208</v>
       </c>
       <c r="E6" t="n">
-        <v>58.39614151335076</v>
+        <v>58.39508430682083</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.3315598148396</v>
+        <v>156.3327608917651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5626569030139627</v>
+        <v>0.5626744226967152</v>
       </c>
       <c r="D7" t="n">
-        <v>659.5567792238558</v>
+        <v>659.5619837403448</v>
       </c>
       <c r="E7" t="n">
-        <v>58.39614151335076</v>
+        <v>58.39508430682083</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.7263865974608</v>
+        <v>169.7252765884025</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5562616410851049</v>
+        <v>0.5563182277208949</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.5196787022</v>
+        <v>2785.516031900652</v>
       </c>
       <c r="E8" t="n">
-        <v>14.22984434565833</v>
+        <v>14.23249039170919</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.3315596956804</v>
+        <v>156.3327607726035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5626569030139627</v>
+        <v>0.5626744226967152</v>
       </c>
       <c r="D9" t="n">
-        <v>2753.334638096193</v>
+        <v>2753.336005423987</v>
       </c>
       <c r="E9" t="n">
-        <v>14.22984434565833</v>
+        <v>14.23249039170919</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.3315598148396</v>
+        <v>156.3327608917651</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5626569030139627</v>
+        <v>0.5626744226967152</v>
       </c>
       <c r="D10" t="n">
-        <v>664.9577047071923</v>
+        <v>664.9508714367777</v>
       </c>
       <c r="E10" t="n">
-        <v>72.62598585900909</v>
+        <v>72.62757469853003</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3315598148396</v>
+        <v>156.3327608917651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5626569030139627</v>
+        <v>0.5626744226967152</v>
       </c>
       <c r="D11" t="n">
-        <v>664.9577047071923</v>
+        <v>664.9508714367777</v>
       </c>
       <c r="E11" t="n">
-        <v>76.8540529038568</v>
+        <v>76.85520391266876</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5626569030139627</v>
+        <v>0.5626744226967152</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6360939821032</v>
+        <v>251.6361086932704</v>
       </c>
       <c r="E12" t="n">
-        <v>76.85058640964616</v>
+        <v>76.85480405320951</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.22530190746022</v>
+        <v>54.22120394115933</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>227.5960441131694</v>
+        <v>227.578909143114</v>
       </c>
       <c r="E13" t="n">
-        <v>72.62531303972185</v>
+        <v>72.63221821811835</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.70420380258662</v>
+        <v>53.69957696204466</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.4172058635364</v>
+        <v>225.3978603406676</v>
       </c>
       <c r="E14" t="n">
-        <v>63.65179569548126</v>
+        <v>63.65858728415642</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.40090148503054</v>
+        <v>87.39631407591384</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06353299380731255</v>
+        <v>0.06352174158879817</v>
       </c>
       <c r="D15" t="n">
-        <v>366.1074009940245</v>
+        <v>366.0881117656731</v>
       </c>
       <c r="E15" t="n">
-        <v>59.21520019546932</v>
+        <v>59.21539780534764</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.00948626910696</v>
+        <v>56.00833492706721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06353298305758542</v>
+        <v>0.06352208909236383</v>
       </c>
       <c r="D16" t="n">
-        <v>234.5198245139674</v>
+        <v>234.5149987274597</v>
       </c>
       <c r="E16" t="n">
-        <v>59.21586813340477</v>
+        <v>59.21449317896592</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>621.2257056656449</v>
+        <v>621.2241609714913</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.25636975157255</v>
+        <v>78.25617516503866</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.44319850566916</v>
+        <v>71.44023257589342</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>299.1326721432368</v>
+        <v>299.1202537952657</v>
       </c>
       <c r="E19" t="n">
-        <v>78.25636975157255</v>
+        <v>78.25617516503866</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.0901932801213</v>
+        <v>107.0914529378123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1299133158223002</v>
+        <v>0.1299182574459069</v>
       </c>
       <c r="D20" t="n">
-        <v>2664.134288125715</v>
+        <v>2664.119776653141</v>
       </c>
       <c r="E20" t="n">
-        <v>19.47835165172128</v>
+        <v>19.48354094212462</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.595731045873</v>
+        <v>105.5968338390556</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1234176500311852</v>
+        <v>0.1234223445736115</v>
       </c>
       <c r="D21" t="n">
-        <v>442.7909644720124</v>
+        <v>442.7956244380104</v>
       </c>
       <c r="E21" t="n">
-        <v>19.47835165172128</v>
+        <v>19.48354094212462</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.85411184489139</v>
+        <v>84.84982566195769</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>355.2841662945603</v>
+        <v>355.2662200466169</v>
       </c>
       <c r="E22" t="n">
-        <v>621.2257056656449</v>
+        <v>621.2241609714913</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>621.2257056656449</v>
+        <v>621.2241609714913</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.86575822698801</v>
+        <v>50.8653846061042</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>621.2257056656449</v>
+        <v>621.2241609714913</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.7350248635214</v>
+        <v>88.73039843863876</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06687683558664478</v>
+        <v>0.06686499114610334</v>
       </c>
       <c r="D25" t="n">
-        <v>2575.782798215048</v>
+        <v>2575.741887763373</v>
       </c>
       <c r="E25" t="n">
-        <v>39.73682098032057</v>
+        <v>39.732075894708</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>511.0941350150853</v>
+        <v>511.0914273839226</v>
       </c>
       <c r="C26" t="n">
-        <v>6.168568289357703</v>
+        <v>6.169257567264053</v>
       </c>
       <c r="D26" t="n">
-        <v>3447.574924295575</v>
+        <v>3447.560796852628</v>
       </c>
       <c r="E26" t="n">
-        <v>49.42128813906275</v>
+        <v>49.42704876484757</v>
       </c>
       <c r="F26" t="n">
-        <v>6.901839732216644</v>
+        <v>6.901772505683863</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.6035142489376</v>
+        <v>196.6009986120075</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4146279155629397</v>
+        <v>0.4146760842641855</v>
       </c>
       <c r="D27" t="n">
-        <v>2853.036685685384</v>
+        <v>2853.028873608517</v>
       </c>
       <c r="E27" t="n">
-        <v>49.42128813906275</v>
+        <v>49.42704876484757</v>
       </c>
       <c r="F27" t="n">
-        <v>7.139351344226369</v>
+        <v>7.139282319827235</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.041209383921</v>
+        <v>167.0418223329632</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4722540215436499</v>
+        <v>0.4723236234388842</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.5196787022</v>
+        <v>2785.516031900652</v>
       </c>
       <c r="E28" t="n">
-        <v>14.22984434565833</v>
+        <v>14.23249039170919</v>
       </c>
       <c r="F28" t="n">
-        <v>6.932479082742602</v>
+        <v>6.932405170032274</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.4713246524759</v>
+        <v>189.4689627862134</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4146279155629397</v>
+        <v>0.4146760842641855</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.94258660889</v>
+        <v>2837.934892664654</v>
       </c>
       <c r="E29" t="n">
-        <v>63.65113248472107</v>
+        <v>63.65953915655676</v>
       </c>
       <c r="F29" t="n">
-        <v>7.106972684567713</v>
+        <v>7.106903744159736</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.0902115384073</v>
+        <v>107.0905071363043</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1299161899711408</v>
+        <v>0.1299175026766206</v>
       </c>
       <c r="D30" t="n">
-        <v>2664.134353333049</v>
+        <v>2664.116399334879</v>
       </c>
       <c r="E30" t="n">
-        <v>63.65113248472107</v>
+        <v>63.65953915655676</v>
       </c>
       <c r="F30" t="n">
-        <v>7.211953986088242</v>
+        <v>7.211902236389188</v>
       </c>
       <c r="G30" t="n">
-        <v>98.99529173869954</v>
+        <v>98.99446866472817</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.73444365881227</v>
+        <v>88.73003427474168</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06687534750684186</v>
+        <v>0.06686405889845615</v>
       </c>
       <c r="D31" t="n">
-        <v>2575.780075193338</v>
+        <v>2575.740992512109</v>
       </c>
       <c r="E31" t="n">
-        <v>44.17275326957233</v>
+        <v>44.17621724591712</v>
       </c>
       <c r="F31" t="n">
-        <v>7.268708575016057</v>
+        <v>7.268674819516741</v>
       </c>
       <c r="G31" t="n">
-        <v>96.42634852165693</v>
+        <v>96.42497178691336</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.49537296521015</v>
+        <v>42.5276762805853</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008425668430976797</v>
+        <v>0.008439929370468937</v>
       </c>
       <c r="D32" t="n">
-        <v>2575.780075193338</v>
+        <v>2575.740992512109</v>
       </c>
       <c r="E32" t="n">
-        <v>4.435927562076493</v>
+        <v>4.444094105190494</v>
       </c>
       <c r="F32" t="n">
-        <v>8.202126872190462</v>
+        <v>8.201225687383801</v>
       </c>
       <c r="G32" t="n">
-        <v>99.90892410924502</v>
+        <v>99.90489260826911</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.63121301547795</v>
+        <v>37.5769702015977</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002744400744094715</v>
+        <v>0.002744930541767423</v>
       </c>
       <c r="D33" t="n">
-        <v>2570.628698214661</v>
+        <v>2570.526151297582</v>
       </c>
       <c r="E33" t="n">
-        <v>4.435927562076493</v>
+        <v>4.444094105190494</v>
       </c>
       <c r="F33" t="n">
-        <v>8.702332325302319</v>
+        <v>8.701913341253896</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.60406662667282</v>
+        <v>22.6072458499238</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002744400744094715</v>
+        <v>0.002744930541767423</v>
       </c>
       <c r="D34" t="n">
-        <v>94.80868265118248</v>
+        <v>94.82198101962074</v>
       </c>
       <c r="E34" t="n">
-        <v>4.435927562076493</v>
+        <v>4.444094105190494</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.62531288063798</v>
+        <v>24.62849446323941</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.9049723724473</v>
+        <v>103.9182705664889</v>
       </c>
       <c r="E35" t="n">
-        <v>4.435927562076493</v>
+        <v>4.444094105190494</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.9040926785715</v>
+        <v>498.9036895308766</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3465.823526186356</v>
+        <v>3465.82263690587</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623152380337999</v>
+        <v>7.623162006869049</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>8.973517344240586</v>
+        <v>8.973630933961937</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.9040926785715</v>
+        <v>513.9036895308766</v>
       </c>
       <c r="C42" t="n">
-        <v>6.771021248648237</v>
+        <v>6.771458930114417</v>
       </c>
       <c r="D42" t="n">
-        <v>3447.57547592841</v>
+        <v>3447.572702734015</v>
       </c>
       <c r="E42" t="n">
-        <v>8.973517344240586</v>
+        <v>8.973630933961937</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980464358790893</v>
+        <v>8.980475699338044</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.57203270473134</v>
+        <v>3.572037215500907</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944157</v>
+        <v>0.05094889585944169</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489642</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173059</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.739713167493439</v>
+        <v>1.740254349065834</v>
       </c>
       <c r="C2" t="n">
-        <v>1.933338256917418</v>
+        <v>1.933878116842436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8998493467290607</v>
+        <v>0.8998779881263954</v>
       </c>
       <c r="E2" t="n">
-        <v>0.241733874401606</v>
+        <v>0.2416793911607773</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>131.8711226808843</v>
+        <v>131.8837131499517</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.82222929142849</v>
+        <v>31.82334025968753</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.229688471953904</v>
+        <v>6.229715186153495</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.37163934691991</v>
+        <v>44.37842996080577</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.38284560004507</v>
+        <v>29.38595836244529</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.84912544423446</v>
+        <v>0.8491255662029894</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.06309088317585</v>
+        <v>11.0652051822605</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8132279284960575</v>
+        <v>0.8132119060259789</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.902851728576638</v>
+        <v>3.904091170998991</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8113870929431772</v>
+        <v>0.8113770365149571</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02285113512235777</v>
+        <v>0.02317524510098608</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03349671085174337</v>
+        <v>0.0338648088888471</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04035048228719187</v>
+        <v>0.04042476675434253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04521667270307651</v>
+        <v>0.04529974768873739</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923806170383354</v>
+        <v>0.8923839274361588</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39518.49862331992</v>
+        <v>39520.29018456166</v>
       </c>
       <c r="C2" t="n">
-        <v>39917.67537709083</v>
+        <v>39919.48503491077</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87648.58793407484</v>
+        <v>87650.2923431604</v>
       </c>
       <c r="C3" t="n">
-        <v>88533.9272061362</v>
+        <v>88535.64883147515</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33904.74239026299</v>
+        <v>33907.32033754827</v>
       </c>
       <c r="C4" t="n">
-        <v>34247.21453561918</v>
+        <v>34249.81852277603</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.9925547350311</v>
+        <v>458.0228310578706</v>
       </c>
       <c r="C5" t="n">
-        <v>462.6187421565971</v>
+        <v>462.6493243008794</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29404.20313094544</v>
+        <v>29407.45656844682</v>
       </c>
       <c r="C6" t="n">
-        <v>29701.21528378327</v>
+        <v>29704.50158428972</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31765.44068493376</v>
+        <v>31765.39037076856</v>
       </c>
       <c r="C7" t="n">
-        <v>32086.30372215531</v>
+        <v>32086.25289976622</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.83542533335683</v>
+        <v>42.84646746475962</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.40615592843209</v>
+        <v>88.39575927377921</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.714150770840003</v>
+        <v>7.713159776985931</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25925.81301092008</v>
+        <v>25925.83897095591</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2830.041301452778</v>
+        <v>2830.354456815314</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17016.48927122507</v>
+        <v>17016.51753880871</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.827701913393</v>
+        <v>5906.835161066438</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.415665204351</v>
+        <v>4267.421054104817</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.80027353098</v>
+        <v>15840.82027732313</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28845.08494210151</v>
+        <v>28845.4309493097</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7960347861939172</v>
+        <v>0.7961107880595902</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.8551213849238</v>
+        <v>462.8602382269487</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.1504911862776</v>
+        <v>868.1562806597369</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.898508214269</v>
+        <v>304.8947298167858</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7257810412208</v>
+        <v>692.7216620474065</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.1908052524525</v>
+        <v>234.1829022710617</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.2436068953131</v>
+        <v>616.2351227516292</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.2697777745331</v>
+        <v>233.2618793895184</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.25494167497</v>
+        <v>615.2464640556493</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.4573704653669</v>
+        <v>173.4522566345436</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.4262866814905</v>
+        <v>551.4208592622849</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.2519390232394</v>
+        <v>105.2524983875078</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>479.4237969334287</v>
+        <v>479.4243845950094</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.2294335377075</v>
+        <v>505.2378735384707</v>
       </c>
       <c r="C3" t="n">
-        <v>7.815620281213752</v>
+        <v>7.815398628999034</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.58201510146</v>
+        <v>3414.608115270117</v>
       </c>
       <c r="E3" t="n">
-        <v>63.79115092654969</v>
+        <v>63.79300954052258</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6209799211753</v>
+        <v>296.6167297071279</v>
       </c>
       <c r="C4" t="n">
-        <v>8.186491423381201</v>
+        <v>8.185995761464534</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.879943392193</v>
+        <v>2755.887475602653</v>
       </c>
       <c r="E4" t="n">
-        <v>63.79115092654969</v>
+        <v>63.79300954052258</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.5212082596067</v>
+        <v>295.5163469165481</v>
       </c>
       <c r="C5" t="n">
-        <v>8.186491423381201</v>
+        <v>8.185995761464534</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.002677041037</v>
+        <v>1319.975864470243</v>
       </c>
       <c r="E5" t="n">
-        <v>63.79115092654969</v>
+        <v>63.79300954052258</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.2441876432033</v>
+        <v>163.2394220953926</v>
       </c>
       <c r="C6" t="n">
-        <v>8.186491423381201</v>
+        <v>8.185995761464534</v>
       </c>
       <c r="D6" t="n">
-        <v>693.923640617169</v>
+        <v>693.9027716686763</v>
       </c>
       <c r="E6" t="n">
-        <v>63.79115092654969</v>
+        <v>63.79300954052258</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.8772041756982</v>
+        <v>161.8725505753432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6483185080762872</v>
+        <v>0.6482425168191254</v>
       </c>
       <c r="D7" t="n">
-        <v>683.6346233254765</v>
+        <v>683.6143777748135</v>
       </c>
       <c r="E7" t="n">
-        <v>63.79115092654969</v>
+        <v>63.79300954052258</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.0191783101214</v>
+        <v>175.0133865884085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6415184742025033</v>
+        <v>0.6414627471456155</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.724508826944</v>
+        <v>2791.716281851457</v>
       </c>
       <c r="E8" t="n">
-        <v>16.01419129206266</v>
+        <v>16.01272180353227</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.8772040453798</v>
+        <v>161.8725504450335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6483185080762872</v>
+        <v>0.6482425168191254</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.488174769797</v>
+        <v>2759.483147145422</v>
       </c>
       <c r="E9" t="n">
-        <v>16.01419129206266</v>
+        <v>16.01272180353227</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.6201455678135</v>
+        <v>161.617748171821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6483185080762872</v>
+        <v>0.6482425168191254</v>
       </c>
       <c r="D10" t="n">
-        <v>682.5188070792055</v>
+        <v>682.50835782276</v>
       </c>
       <c r="E10" t="n">
-        <v>79.80534221861235</v>
+        <v>79.80573134405485</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.6201455678135</v>
+        <v>161.617748171821</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6483185080762872</v>
+        <v>0.6482425168191254</v>
       </c>
       <c r="D11" t="n">
-        <v>682.5188070792055</v>
+        <v>682.50835782276</v>
       </c>
       <c r="E11" t="n">
-        <v>87.27517944620094</v>
+        <v>87.26997776773422</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6483185080762872</v>
+        <v>0.6482425168191254</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7080229839272</v>
+        <v>251.7079591756514</v>
       </c>
       <c r="E12" t="n">
-        <v>87.26567824819661</v>
+        <v>87.26621426021434</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.35993084652904</v>
+        <v>50.36048732665512</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>211.436137955875</v>
+        <v>211.4384640853682</v>
       </c>
       <c r="E13" t="n">
-        <v>74.41084686460536</v>
+        <v>74.40905149351245</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.35993084652904</v>
+        <v>50.36048732665512</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>211.436137955875</v>
+        <v>211.4384640853682</v>
       </c>
       <c r="E14" t="n">
-        <v>74.41084686460536</v>
+        <v>74.40905149351245</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.07696069474719</v>
+        <v>83.075345161717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05363942220311375</v>
+        <v>0.05363598260246714</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9345262814308</v>
+        <v>347.9277395248427</v>
       </c>
       <c r="E15" t="n">
-        <v>61.58756112595773</v>
+        <v>61.58698788055771</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.21678738376943</v>
+        <v>55.21663829419805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05363932605756266</v>
+        <v>0.0536366019590141</v>
       </c>
       <c r="D16" t="n">
-        <v>231.195339092861</v>
+        <v>231.194713113128</v>
       </c>
       <c r="E16" t="n">
-        <v>61.58791007697457</v>
+        <v>61.58867139970084</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.01600837659105</v>
+        <v>69.01541038659755</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>288.9700270727867</v>
+        <v>288.967523288684</v>
       </c>
       <c r="E19" t="n">
         <v>80.50666466849297</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.3107935763742</v>
+        <v>108.3081090697731</v>
       </c>
       <c r="C20" t="n">
-        <v>0.135418458176172</v>
+        <v>0.1354203150379193</v>
       </c>
       <c r="D20" t="n">
-        <v>2640.934116461261</v>
+        <v>2640.936784910199</v>
       </c>
       <c r="E20" t="n">
-        <v>25.37780491716712</v>
+        <v>25.37964784556909</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.8033756124974</v>
+        <v>106.8037760715038</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1286475352673634</v>
+        <v>0.1286492992860234</v>
       </c>
       <c r="D21" t="n">
-        <v>447.8949876171722</v>
+        <v>447.8966804618837</v>
       </c>
       <c r="E21" t="n">
-        <v>25.37780491716712</v>
+        <v>25.37964784556909</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.7317850867416</v>
+        <v>80.73028063569303</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>338.0239841581871</v>
+        <v>338.0176850216467</v>
       </c>
       <c r="E22" t="n">
         <v>639.0893128347165</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.56000286872417</v>
+        <v>50.55992753937831</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.37459239517432</v>
+        <v>84.37296333413934</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05646254968748816</v>
+        <v>0.05645892905522858</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.062471257727</v>
+        <v>2530.068015228586</v>
       </c>
       <c r="E25" t="n">
-        <v>36.20979824905983</v>
+        <v>36.20765702900547</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.3144077404521</v>
+        <v>502.3248015689936</v>
       </c>
       <c r="C26" t="n">
-        <v>7.206877702580748</v>
+        <v>7.206809035132098</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.58201510146</v>
+        <v>3414.608115270117</v>
       </c>
       <c r="E26" t="n">
-        <v>58.39614151335076</v>
+        <v>58.39508430682083</v>
       </c>
       <c r="F26" t="n">
-        <v>6.791376838685375</v>
+        <v>6.791414645859994</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.5241881025678</v>
+        <v>187.5296576970048</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4758265284289344</v>
+        <v>0.4758110824359165</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.304050930993</v>
+        <v>2830.316770342406</v>
       </c>
       <c r="E27" t="n">
-        <v>58.39614151335076</v>
+        <v>58.39508430682083</v>
       </c>
       <c r="F27" t="n">
-        <v>7.02856651298011</v>
+        <v>7.028608675832539</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1963404730401</v>
+        <v>172.1918417823036</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5488107530316293</v>
+        <v>0.5487819133481899</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.724508826944</v>
+        <v>2791.716281851457</v>
       </c>
       <c r="E28" t="n">
-        <v>16.01419129206266</v>
+        <v>16.01272180353227</v>
       </c>
       <c r="F28" t="n">
-        <v>6.879724559173287</v>
+        <v>6.879729391817258</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.6949427534689</v>
+        <v>183.6985141258305</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4758265284289344</v>
+        <v>0.4758110824359165</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.001169544478</v>
+        <v>2822.009861215568</v>
       </c>
       <c r="E29" t="n">
-        <v>74.41033280541342</v>
+        <v>74.40780611035311</v>
       </c>
       <c r="F29" t="n">
-        <v>7.010467793131792</v>
+        <v>7.010501354534291</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.3101458361736</v>
+        <v>108.3080231091766</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1354276003643138</v>
+        <v>0.1354178458164809</v>
       </c>
       <c r="D30" t="n">
-        <v>2640.932236179546</v>
+        <v>2640.936535408754</v>
       </c>
       <c r="E30" t="n">
-        <v>74.41033280541342</v>
+        <v>74.40780611035311</v>
       </c>
       <c r="F30" t="n">
-        <v>7.132506178448104</v>
+        <v>7.132549375152021</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87160087874223</v>
+        <v>97.87194409259088</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.37264394609861</v>
+        <v>84.37227025719574</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05645821922944642</v>
+        <v>0.05645738873190095</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.05544099306</v>
+        <v>2530.065418946431</v>
       </c>
       <c r="E31" t="n">
-        <v>49.03256992851551</v>
+        <v>49.02847525880087</v>
       </c>
       <c r="F31" t="n">
-        <v>7.215460671527943</v>
+        <v>7.21549494606999</v>
       </c>
       <c r="G31" t="n">
-        <v>94.76535155689557</v>
+        <v>94.76581504995885</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.64222082873806</v>
+        <v>63.6378205029925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02355946327899026</v>
+        <v>0.02355478385441557</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.05544099306</v>
+        <v>2530.065418946431</v>
       </c>
       <c r="E32" t="n">
-        <v>12.82293678763079</v>
+        <v>12.82038009381161</v>
       </c>
       <c r="F32" t="n">
-        <v>7.597941204045558</v>
+        <v>7.598058660860364</v>
       </c>
       <c r="G32" t="n">
-        <v>96.37666437071536</v>
+        <v>96.37743009412452</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.62379843788375</v>
+        <v>25.62293956480352</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003289740157624623</v>
+        <v>0.00328957251998575</v>
       </c>
       <c r="D33" t="n">
-        <v>2434.956161884038</v>
+        <v>2434.995256008463</v>
       </c>
       <c r="E33" t="n">
-        <v>12.82293678763079</v>
+        <v>12.82038009381161</v>
       </c>
       <c r="F33" t="n">
-        <v>8.166200506900822</v>
+        <v>8.16635375077149</v>
       </c>
       <c r="G33" t="n">
-        <v>95.3823864526226</v>
+        <v>95.38405611771861</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.62379843788375</v>
+        <v>25.62293956480352</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003289740157624623</v>
+        <v>0.00328957251998575</v>
       </c>
       <c r="D34" t="n">
-        <v>107.4377295564316</v>
+        <v>107.4341381511161</v>
       </c>
       <c r="E34" t="n">
-        <v>12.82293678763079</v>
+        <v>12.82038009381161</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.64711783861264</v>
+        <v>27.64625842566392</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>116.5337046855645</v>
+        <v>116.5301134313433</v>
       </c>
       <c r="E35" t="n">
-        <v>12.82293678763079</v>
+        <v>12.82038009381161</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.9040926785715</v>
+        <v>498.9036895308766</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3465.823526186356</v>
+        <v>3465.82263690587</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623152380337999</v>
+        <v>7.623162006869049</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.9040926785715</v>
+        <v>513.9036895308766</v>
       </c>
       <c r="C42" t="n">
-        <v>6.771021248648237</v>
+        <v>6.771458930114417</v>
       </c>
       <c r="D42" t="n">
-        <v>3447.57547592841</v>
+        <v>3447.572702734015</v>
       </c>
       <c r="E42" t="n">
-        <v>8.973517344240586</v>
+        <v>8.973630933961937</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>457.6696834418745</v>
+        <v>457.7543287000908</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.25012331803224</v>
+        <v>10.25019002101654</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.9011315842564</v>
+        <v>539.9000009377095</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>961.3894203612716</v>
+        <v>961.387193743572</v>
       </c>
       <c r="E5" t="n">
-        <v>467.9198067599067</v>
+        <v>468.0045187211073</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787308313546171</v>
+        <v>0.7787311050302491</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211497341578395</v>
+        <v>0.1211501789447131</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03145523134166894</v>
+        <v>0.03145499497842339</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06211616177309592</v>
+        <v>0.06211568805263773</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548041372778512</v>
+        <v>0.006548032993976723</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.3209366107786</v>
+        <v>465.3250329379262</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>876.0767568274671</v>
+        <v>876.0805062090229</v>
       </c>
       <c r="E6" t="n">
-        <v>467.9198067599067</v>
+        <v>468.0045187211073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787308313546171</v>
+        <v>0.7787311050302491</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211497341578395</v>
+        <v>0.1211501789447131</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03145523134166894</v>
+        <v>0.03145499497842339</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06211616177309592</v>
+        <v>0.06211568805263773</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548041372778512</v>
+        <v>0.006548032993976723</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.0926986220944</v>
+        <v>295.1038013654077</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.8655980938008</v>
+        <v>686.8768537674575</v>
       </c>
       <c r="E7" t="n">
-        <v>467.9198067599067</v>
+        <v>468.0045187211073</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787308313546171</v>
+        <v>0.7787311050302491</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211497341578395</v>
+        <v>0.1211501789447131</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03145523134166894</v>
+        <v>0.03145499497842339</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06211616177309592</v>
+        <v>0.06211568805263773</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548041372778512</v>
+        <v>0.006548032993976723</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.4096801255538</v>
+        <v>227.4214590656498</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.6696828365741</v>
+        <v>613.6815101675385</v>
       </c>
       <c r="E8" t="n">
-        <v>467.9198067599067</v>
+        <v>468.0045187211073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787308313546171</v>
+        <v>0.7787311050302491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211497341578395</v>
+        <v>0.1211501789447131</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03145523134166894</v>
+        <v>0.03145499497842339</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06211616177309592</v>
+        <v>0.06211568805263773</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548041372778512</v>
+        <v>0.006548032993976723</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.4887680715567</v>
+        <v>226.5005440409869</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.6809464812903</v>
+        <v>612.6927685474665</v>
       </c>
       <c r="E9" t="n">
-        <v>467.9198067599067</v>
+        <v>468.0045187211073</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787308313546171</v>
+        <v>0.7787311050302491</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211497341578395</v>
+        <v>0.1211501789447131</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03145523134166894</v>
+        <v>0.03145499497842339</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06211616177309592</v>
+        <v>0.06211568805263773</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548041372778512</v>
+        <v>0.006548032993976723</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.019267458314</v>
+        <v>167.0264752845327</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1989114078502</v>
+        <v>549.2057614006484</v>
       </c>
       <c r="E10" t="n">
-        <v>467.9198067599067</v>
+        <v>468.0045187211073</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787308313546171</v>
+        <v>0.7787311050302491</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211497341578395</v>
+        <v>0.1211501789447131</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03145523134166894</v>
+        <v>0.03145499497842339</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06211616177309592</v>
+        <v>0.06211568805263773</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548041372778512</v>
+        <v>0.006548032993976723</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.1117521505182</v>
+        <v>102.1147140350724</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.6267919202263</v>
+        <v>480.6291213558064</v>
       </c>
       <c r="E11" t="n">
-        <v>467.9198067599067</v>
+        <v>468.0045187211073</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787308313546171</v>
+        <v>0.7787311050302491</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211497341578395</v>
+        <v>0.1211501789447131</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03145523134166894</v>
+        <v>0.03145499497842339</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06211616177309592</v>
+        <v>0.06211568805263773</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548041372778512</v>
+        <v>0.006548032993976723</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.716184587157949</v>
+        <v>9.71624781551998</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5339387308742981</v>
+        <v>0.5339422054965715</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572037215500907</v>
+        <v>3.572026516018045</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6563276098278441</v>
+        <v>0.6565421584436053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6867209104446607</v>
+        <v>0.6868822921326465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9557414079656662</v>
+        <v>0.9558292096964087</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.24768868002367</v>
+        <v>54.26654920025663</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.11974234679946</v>
+        <v>34.12813477538266</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490909384092191</v>
+        <v>0.8490906766622586</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.47326891839024</v>
+        <v>13.4770410069218</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7954738200791613</v>
+        <v>0.7954471447526543</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.435841790388622</v>
+        <v>5.43853556373984</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7889722349802617</v>
+        <v>0.7889114023851735</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.218835624445348</v>
+        <v>1.222837854212332</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3589431234459587</v>
+        <v>0.3594894129729273</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.116613860416427</v>
+        <v>0.1167645908790524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1301011006080568</v>
+        <v>0.1302679671748928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8963326203345384</v>
+        <v>0.8963415443666872</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42022.41089496908</v>
+        <v>42020.93374676334</v>
       </c>
       <c r="C2" t="n">
-        <v>42446.87969188796</v>
+        <v>42445.38762299328</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91610.46788150251</v>
+        <v>91603.53057289679</v>
       </c>
       <c r="C3" t="n">
-        <v>92535.82614293182</v>
+        <v>92528.81876050182</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39940.62122372127</v>
+        <v>39938.47670257388</v>
       </c>
       <c r="C4" t="n">
-        <v>40344.06184214269</v>
+        <v>40341.89565916553</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.269174409505</v>
+        <v>516.2801631031157</v>
       </c>
       <c r="C5" t="n">
-        <v>521.4840145550555</v>
+        <v>521.4951142455714</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33329.18875527467</v>
+        <v>33334.47877229429</v>
       </c>
       <c r="C6" t="n">
-        <v>33665.84722755017</v>
+        <v>33671.19067908514</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37595.94760862255</v>
+        <v>37599.6955653442</v>
       </c>
       <c r="C7" t="n">
-        <v>37975.70465517429</v>
+        <v>37979.49047004464</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.10199970648721</v>
+        <v>55.11950570887668</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.73185080591111</v>
+        <v>80.71596072038872</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.117612199568666</v>
+        <v>7.115996282701577</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.8994192165705</v>
+        <v>513.897747524388</v>
       </c>
       <c r="C3" t="n">
-        <v>6.77152569453363</v>
+        <v>6.772606700071725</v>
       </c>
       <c r="D3" t="n">
-        <v>3447.560796852628</v>
+        <v>3447.545272506421</v>
       </c>
       <c r="E3" t="n">
-        <v>58.39508430682083</v>
+        <v>58.40992452260254</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.1264119077413</v>
+        <v>287.1364708507829</v>
       </c>
       <c r="C4" t="n">
-        <v>7.13521974069665</v>
+        <v>7.136275699951717</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.854348478276</v>
+        <v>2770.840344621276</v>
       </c>
       <c r="E4" t="n">
-        <v>58.39508430682083</v>
+        <v>58.40992452260254</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.2763793972927</v>
+        <v>286.2652547750148</v>
       </c>
       <c r="C5" t="n">
-        <v>7.13521974069665</v>
+        <v>7.136275699951717</v>
       </c>
       <c r="D5" t="n">
-        <v>1269.979783888431</v>
+        <v>1269.918836978089</v>
       </c>
       <c r="E5" t="n">
-        <v>58.39508430682083</v>
+        <v>58.40992452260254</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.3304983328471</v>
+        <v>162.3147448829031</v>
       </c>
       <c r="C6" t="n">
-        <v>7.13521974069665</v>
+        <v>7.136275699951717</v>
       </c>
       <c r="D6" t="n">
-        <v>689.3633680473208</v>
+        <v>689.295940719407</v>
       </c>
       <c r="E6" t="n">
-        <v>58.39508430682083</v>
+        <v>58.40992452260254</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.3327608917651</v>
+        <v>156.3379003080952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5626744226967152</v>
+        <v>0.5627493944563805</v>
       </c>
       <c r="D7" t="n">
-        <v>659.5619837403448</v>
+        <v>659.5842539508053</v>
       </c>
       <c r="E7" t="n">
-        <v>58.39508430682083</v>
+        <v>58.40992452260254</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.7252765884025</v>
+        <v>169.7314216835617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5563182277208949</v>
+        <v>0.556399497447587</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.516031900652</v>
+        <v>2785.524767741515</v>
       </c>
       <c r="E8" t="n">
-        <v>14.23249039170919</v>
+        <v>14.23452240033891</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.3327607726035</v>
+        <v>156.3379001889233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5626744226967152</v>
+        <v>0.5627493944563805</v>
       </c>
       <c r="D9" t="n">
-        <v>2753.336005423987</v>
+        <v>2753.341856062319</v>
       </c>
       <c r="E9" t="n">
-        <v>14.23249039170919</v>
+        <v>14.23452240033891</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.3327608917651</v>
+        <v>156.3379003080952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5626744226967152</v>
+        <v>0.5627493944563805</v>
       </c>
       <c r="D10" t="n">
-        <v>664.9508714367777</v>
+        <v>664.9448262750063</v>
       </c>
       <c r="E10" t="n">
-        <v>72.62757469853003</v>
+        <v>72.64444692294146</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3327608917651</v>
+        <v>156.3379003080952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5626744226967152</v>
+        <v>0.5627493944563805</v>
       </c>
       <c r="D11" t="n">
-        <v>664.9508714367777</v>
+        <v>664.9448262750063</v>
       </c>
       <c r="E11" t="n">
-        <v>76.85520391266876</v>
+        <v>76.87532210692373</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5626744226967152</v>
+        <v>0.5627493944563805</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6361086932704</v>
+        <v>251.636171646796</v>
       </c>
       <c r="E12" t="n">
-        <v>76.85480405320951</v>
+        <v>76.87603947727527</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.22120394115933</v>
+        <v>54.21751001416686</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>227.578909143114</v>
+        <v>227.5634636019104</v>
       </c>
       <c r="E13" t="n">
-        <v>72.63221821811835</v>
+        <v>72.64395828559644</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.69957696204466</v>
+        <v>53.69543731136901</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.3978603406676</v>
+        <v>225.3805518389736</v>
       </c>
       <c r="E14" t="n">
-        <v>63.65858728415642</v>
+        <v>63.67000940160575</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.39631407591384</v>
+        <v>87.39316910701046</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06352174158879817</v>
+        <v>0.0635140284191119</v>
       </c>
       <c r="D15" t="n">
-        <v>366.0881117656731</v>
+        <v>366.074887749939</v>
       </c>
       <c r="E15" t="n">
-        <v>59.21539780534764</v>
+        <v>59.21577326672755</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.00833492706721</v>
+        <v>56.00810399987188</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06352208909236383</v>
+        <v>0.06351401444335666</v>
       </c>
       <c r="D16" t="n">
-        <v>234.5149987274597</v>
+        <v>234.5140258102812</v>
       </c>
       <c r="E16" t="n">
-        <v>59.21449317896592</v>
+        <v>59.21660282363919</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>621.2241609714913</v>
+        <v>621.2203799274663</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.25617516503866</v>
+        <v>78.25569886346811</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.44023257589342</v>
+        <v>71.43891167917654</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>299.1202537952657</v>
+        <v>299.1147232007122</v>
       </c>
       <c r="E19" t="n">
-        <v>78.25617516503866</v>
+        <v>78.25569886346811</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.0914529378123</v>
+        <v>107.0921891457022</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1299182574459069</v>
+        <v>0.1299215485080477</v>
       </c>
       <c r="D20" t="n">
-        <v>2664.119776653141</v>
+        <v>2664.102177645467</v>
       </c>
       <c r="E20" t="n">
-        <v>19.48354094212462</v>
+        <v>19.48705649204787</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.5968338390556</v>
+        <v>105.597568267817</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1234223445736115</v>
+        <v>0.1234254710826453</v>
       </c>
       <c r="D21" t="n">
-        <v>442.7956244380104</v>
+        <v>442.79872784317</v>
       </c>
       <c r="E21" t="n">
-        <v>19.48354094212462</v>
+        <v>19.48705649204787</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.84982566195769</v>
+        <v>84.84690665899133</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>355.2662200466169</v>
+        <v>355.2539981811967</v>
       </c>
       <c r="E22" t="n">
-        <v>621.2241609714913</v>
+        <v>621.2203799274663</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>621.2241609714913</v>
+        <v>621.2203799274663</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.8653846061042</v>
+        <v>50.86521821153789</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>621.2241609714913</v>
+        <v>621.2203799274663</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.73039843863876</v>
+        <v>88.72722672225314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06686499114610334</v>
+        <v>0.06685687202011779</v>
       </c>
       <c r="D25" t="n">
-        <v>2575.741887763373</v>
+        <v>2575.707026887055</v>
       </c>
       <c r="E25" t="n">
-        <v>39.732075894708</v>
+        <v>39.72866933478512</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>511.0914273839226</v>
+        <v>511.0892154079349</v>
       </c>
       <c r="C26" t="n">
-        <v>6.169257567264053</v>
+        <v>6.17017768160939</v>
       </c>
       <c r="D26" t="n">
-        <v>3447.560796852628</v>
+        <v>3447.545272506421</v>
       </c>
       <c r="E26" t="n">
-        <v>49.42704876484757</v>
+        <v>49.4346890835102</v>
       </c>
       <c r="F26" t="n">
-        <v>6.901772505683863</v>
+        <v>6.901687025868009</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.6009986120075</v>
+        <v>196.5973688688707</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4146760842641855</v>
+        <v>0.4147341059087613</v>
       </c>
       <c r="D27" t="n">
-        <v>2853.028873608517</v>
+        <v>2853.018198674371</v>
       </c>
       <c r="E27" t="n">
-        <v>49.42704876484757</v>
+        <v>49.4346890835102</v>
       </c>
       <c r="F27" t="n">
-        <v>7.139282319827235</v>
+        <v>7.139196491929045</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.0418223329632</v>
+        <v>167.0481181022942</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4723236234388842</v>
+        <v>0.4723981072283228</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.516031900652</v>
+        <v>2785.524767741515</v>
       </c>
       <c r="E28" t="n">
-        <v>14.23249039170919</v>
+        <v>14.23452240033891</v>
       </c>
       <c r="F28" t="n">
-        <v>6.932405170032274</v>
+        <v>6.932354795154573</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.4689627862134</v>
+        <v>189.4675638129056</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4146760842641855</v>
+        <v>0.4147341059087613</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.934892664654</v>
+        <v>2837.928695724689</v>
       </c>
       <c r="E29" t="n">
-        <v>63.65953915655676</v>
+        <v>63.66921148384911</v>
       </c>
       <c r="F29" t="n">
-        <v>7.106903744159736</v>
+        <v>7.106827348049152</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.0905071363043</v>
+        <v>107.0923132748534</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1299175026766206</v>
+        <v>0.1299255237017224</v>
       </c>
       <c r="D30" t="n">
-        <v>2664.116399334879</v>
+        <v>2664.102620822759</v>
       </c>
       <c r="E30" t="n">
-        <v>63.65953915655676</v>
+        <v>63.66921148384911</v>
       </c>
       <c r="F30" t="n">
-        <v>7.211902236389188</v>
+        <v>7.211838308278261</v>
       </c>
       <c r="G30" t="n">
-        <v>98.99446866472817</v>
+        <v>98.99372661112552</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.73003427474168</v>
+        <v>88.72658282398373</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06686405889845615</v>
+        <v>0.06685522383601539</v>
       </c>
       <c r="D31" t="n">
-        <v>2575.740992512109</v>
+        <v>2575.703922774293</v>
       </c>
       <c r="E31" t="n">
-        <v>44.17621724591712</v>
+        <v>44.18210755190668</v>
       </c>
       <c r="F31" t="n">
-        <v>7.268674819516741</v>
+        <v>7.268630496855854</v>
       </c>
       <c r="G31" t="n">
-        <v>96.42497178691336</v>
+        <v>96.4236107648088</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.5276762805853</v>
+        <v>42.56449024621924</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008439929370468937</v>
+        <v>0.008456206986256827</v>
       </c>
       <c r="D32" t="n">
-        <v>2575.740992512109</v>
+        <v>2575.703922774293</v>
       </c>
       <c r="E32" t="n">
-        <v>4.444094105190494</v>
+        <v>4.453406577966568</v>
       </c>
       <c r="F32" t="n">
-        <v>8.201225687383801</v>
+        <v>8.20022260572998</v>
       </c>
       <c r="G32" t="n">
-        <v>99.90489260826911</v>
+        <v>99.90060923937824</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.5769702015977</v>
+        <v>37.51900011360829</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002744930541767423</v>
+        <v>0.002745535591102016</v>
       </c>
       <c r="D33" t="n">
-        <v>2570.526151297582</v>
+        <v>2570.416542632547</v>
       </c>
       <c r="E33" t="n">
-        <v>4.444094105190494</v>
+        <v>4.453406577966568</v>
       </c>
       <c r="F33" t="n">
-        <v>8.701913341253896</v>
+        <v>8.701458950063774</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.6072458499238</v>
+        <v>22.61087598953657</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002744930541767423</v>
+        <v>0.002745535591102016</v>
       </c>
       <c r="D34" t="n">
-        <v>94.82198101962074</v>
+        <v>94.83716551889674</v>
       </c>
       <c r="E34" t="n">
-        <v>4.444094105190494</v>
+        <v>4.453406577966568</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.62849446323941</v>
+        <v>24.63212729496058</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.9182705664889</v>
+        <v>103.9334548604805</v>
       </c>
       <c r="E35" t="n">
-        <v>4.444094105190494</v>
+        <v>4.453406577966568</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.9036895308766</v>
+        <v>498.8940730197794</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3465.82263690587</v>
+        <v>3465.801424406694</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623162006869049</v>
+        <v>7.623139172870884</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>8.973630933961937</v>
+        <v>8.973948883990682</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.9036895308766</v>
+        <v>513.8940730197794</v>
       </c>
       <c r="C42" t="n">
-        <v>6.771458930114417</v>
+        <v>6.772699900581689</v>
       </c>
       <c r="D42" t="n">
-        <v>3447.572702734015</v>
+        <v>3447.535553774314</v>
       </c>
       <c r="E42" t="n">
-        <v>8.973630933961937</v>
+        <v>8.973948883990682</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980475699338044</v>
+        <v>8.980448799717458</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572037215500907</v>
+        <v>3.572026516018045</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.740254349065834</v>
+        <v>1.735457381593233</v>
       </c>
       <c r="C2" t="n">
-        <v>1.933878116842436</v>
+        <v>1.928379422156857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8998779881263954</v>
+        <v>0.8999563891073652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2416793911607773</v>
+        <v>0.2424464310716913</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>131.8837131499517</v>
+        <v>131.9246751340689</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.82334025968753</v>
+        <v>31.82695512404442</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.229715186153495</v>
+        <v>6.229802098453066</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.37842996080577</v>
+        <v>44.38681780908418</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.38595836244529</v>
+        <v>29.39026104661648</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8491255662029894</v>
+        <v>0.8491255365466864</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.0652051822605</v>
+        <v>11.06736912433838</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8132119060259789</v>
+        <v>0.8131997735009019</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.904091170998991</v>
+        <v>3.905640784625849</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8113770365149571</v>
+        <v>0.8113659831212493</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02317524510098608</v>
+        <v>0.02354685350346289</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0338648088888471</v>
+        <v>0.03428443236571696</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04042476675434253</v>
+        <v>0.04050947478889615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04529974768873739</v>
+        <v>0.04539447892750505</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923839274361588</v>
+        <v>0.8923877032180445</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39520.29018456166</v>
+        <v>39524.67609086553</v>
       </c>
       <c r="C2" t="n">
-        <v>39919.48503491077</v>
+        <v>39923.91524329851</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87650.2923431604</v>
+        <v>87662.68265817857</v>
       </c>
       <c r="C3" t="n">
-        <v>88535.64883147515</v>
+        <v>88548.16430119048</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33907.32033754827</v>
+        <v>33913.19403856514</v>
       </c>
       <c r="C4" t="n">
-        <v>34249.81852277603</v>
+        <v>34255.7515541062</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.0228310578706</v>
+        <v>458.1081905809135</v>
       </c>
       <c r="C5" t="n">
-        <v>462.6493243008794</v>
+        <v>462.7355460413268</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29407.45656844682</v>
+        <v>29415.0841625422</v>
       </c>
       <c r="C6" t="n">
-        <v>29704.50158428972</v>
+        <v>29712.2062247901</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31765.39037076856</v>
+        <v>31773.2356454999</v>
       </c>
       <c r="C7" t="n">
-        <v>32086.25289976622</v>
+        <v>32094.17741969687</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.84646746475962</v>
+        <v>42.85379915415538</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.39575927377921</v>
+        <v>88.38806158689329</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.713159776985931</v>
+        <v>7.712680030754318</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25925.83897095591</v>
+        <v>25925.59960829728</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2830.354456815314</v>
+        <v>2831.279324317444</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17016.51753880871</v>
+        <v>17016.62827430594</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.835161066438</v>
+        <v>5906.817468058849</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.421054104817</v>
+        <v>4267.408271707639</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.82027732313</v>
+        <v>15840.77282860554</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28845.4309493097</v>
+        <v>28846.27789268948</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7961107880595902</v>
+        <v>0.7963580534472348</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.8602382269487</v>
+        <v>462.8627383237327</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.1562806597369</v>
+        <v>868.1591094077839</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.8947298167858</v>
+        <v>304.9095111034885</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7216620474065</v>
+        <v>692.7377757847958</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.1829022710617</v>
+        <v>234.2017376577076</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.2351227516292</v>
+        <v>616.2553432604202</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.2618793895184</v>
+        <v>233.2806987032165</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.2464640556493</v>
+        <v>615.2666635210234</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.4522566345436</v>
+        <v>173.4617439056667</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.4208592622849</v>
+        <v>551.4309283120007</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.2524983875078</v>
+        <v>105.2552508343444</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>479.4243845950094</v>
+        <v>479.4272762841763</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.2378735384707</v>
+        <v>505.2371264704017</v>
       </c>
       <c r="C3" t="n">
-        <v>7.815398628999034</v>
+        <v>7.817229755634916</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.608115270117</v>
+        <v>3414.583564775525</v>
       </c>
       <c r="E3" t="n">
-        <v>63.79300954052258</v>
+        <v>63.7991251910747</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6167297071279</v>
+        <v>296.6322386120719</v>
       </c>
       <c r="C4" t="n">
-        <v>8.185995761464534</v>
+        <v>8.187804528354327</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.887475602653</v>
+        <v>2755.859987004593</v>
       </c>
       <c r="E4" t="n">
-        <v>63.79300954052258</v>
+        <v>63.7991251910747</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.5163469165481</v>
+        <v>295.5071457112393</v>
       </c>
       <c r="C5" t="n">
-        <v>8.185995761464534</v>
+        <v>8.187804528354327</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.975864470243</v>
+        <v>1319.922258171965</v>
       </c>
       <c r="E5" t="n">
-        <v>63.79300954052258</v>
+        <v>63.7991251910747</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.2394220953926</v>
+        <v>163.2476289838386</v>
       </c>
       <c r="C6" t="n">
-        <v>8.185995761464534</v>
+        <v>8.187804528354327</v>
       </c>
       <c r="D6" t="n">
-        <v>693.9027716686763</v>
+        <v>693.939267965155</v>
       </c>
       <c r="E6" t="n">
-        <v>63.79300954052258</v>
+        <v>63.7991251910747</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.8725505753432</v>
+        <v>161.880393236599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6482425168191254</v>
+        <v>0.6483705881374975</v>
       </c>
       <c r="D7" t="n">
-        <v>683.6143777748135</v>
+        <v>683.6484974181091</v>
       </c>
       <c r="E7" t="n">
-        <v>63.79300954052258</v>
+        <v>63.7991251910747</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.0133865884085</v>
+        <v>175.0198663218351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6414627471456155</v>
+        <v>0.6415928222150438</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.716281851457</v>
+        <v>2791.722440826913</v>
       </c>
       <c r="E8" t="n">
-        <v>16.01272180353227</v>
+        <v>16.01508291463108</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.8725504450335</v>
+        <v>161.8803931062741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6482425168191254</v>
+        <v>0.6483705881374975</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.483147145422</v>
+        <v>2759.491620011147</v>
       </c>
       <c r="E9" t="n">
-        <v>16.01272180353227</v>
+        <v>16.01508291463108</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.617748171821</v>
+        <v>161.625475736051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6482425168191254</v>
+        <v>0.6483705881374975</v>
       </c>
       <c r="D10" t="n">
-        <v>682.50835782276</v>
+        <v>682.5419717074116</v>
       </c>
       <c r="E10" t="n">
-        <v>79.80573134405485</v>
+        <v>79.81420810570579</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.617748171821</v>
+        <v>161.625475736051</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6482425168191254</v>
+        <v>0.6483705881374975</v>
       </c>
       <c r="D11" t="n">
-        <v>682.50835782276</v>
+        <v>682.5419717074116</v>
       </c>
       <c r="E11" t="n">
-        <v>87.26997776773422</v>
+        <v>87.27189185326513</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6482425168191254</v>
+        <v>0.6483705881374975</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7079591756514</v>
+        <v>251.7080667144582</v>
       </c>
       <c r="E12" t="n">
-        <v>87.26621426021434</v>
+        <v>87.27848612929428</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.36048732665512</v>
+        <v>50.35473262051977</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>211.4384640853682</v>
+        <v>211.4144089777508</v>
       </c>
       <c r="E13" t="n">
-        <v>74.40905149351245</v>
+        <v>74.42356149834731</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.36048732665512</v>
+        <v>50.35473262051977</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>211.4384640853682</v>
+        <v>211.4144089777508</v>
       </c>
       <c r="E14" t="n">
-        <v>74.40905149351245</v>
+        <v>74.42356149834731</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.075345161717</v>
+        <v>83.06834141358507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05363598260246714</v>
+        <v>0.05362107319253</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9277395248427</v>
+        <v>347.8983172284366</v>
       </c>
       <c r="E15" t="n">
-        <v>61.58698788055771</v>
+        <v>61.58793892100761</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.21663829419805</v>
+        <v>55.21479320121887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0536366019590141</v>
+        <v>0.05362123485853723</v>
       </c>
       <c r="D16" t="n">
-        <v>231.194713113128</v>
+        <v>231.1869817564479</v>
       </c>
       <c r="E16" t="n">
-        <v>61.58867139970084</v>
+        <v>61.58660899212829</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.01541038659755</v>
+        <v>69.01061653904833</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>288.967523288684</v>
+        <v>288.9474514489954</v>
       </c>
       <c r="E19" t="n">
         <v>80.50666466849297</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.3081090697731</v>
+        <v>108.3119764965534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1354203150379193</v>
+        <v>0.1354283901176886</v>
       </c>
       <c r="D20" t="n">
-        <v>2640.936784910199</v>
+        <v>2640.917715362747</v>
       </c>
       <c r="E20" t="n">
-        <v>25.37964784556909</v>
+        <v>25.38801698599073</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.8037760715038</v>
+        <v>106.8055174872679</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1286492992860234</v>
+        <v>0.1286569706118042</v>
       </c>
       <c r="D21" t="n">
-        <v>447.8966804618837</v>
+        <v>447.9040418833549</v>
       </c>
       <c r="E21" t="n">
-        <v>25.37964784556909</v>
+        <v>25.38801698599073</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.73028063569303</v>
+        <v>80.72373845601894</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>338.0176850216467</v>
+        <v>337.9902929153513</v>
       </c>
       <c r="E22" t="n">
         <v>639.0893128347165</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.55992753937831</v>
+        <v>50.55932365402244</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.37296333413934</v>
+        <v>84.36590093957108</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05645892905522858</v>
+        <v>0.05644323493950526</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.068015228586</v>
+        <v>2530.009457897757</v>
       </c>
       <c r="E25" t="n">
-        <v>36.20765702900547</v>
+        <v>36.1999583251463</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.3248015689936</v>
+        <v>502.323230405209</v>
       </c>
       <c r="C26" t="n">
-        <v>7.206809035132098</v>
+        <v>7.20857533993456</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.608115270117</v>
+        <v>3414.583564775525</v>
       </c>
       <c r="E26" t="n">
-        <v>58.39508430682083</v>
+        <v>58.40992452260254</v>
       </c>
       <c r="F26" t="n">
-        <v>6.791414645859994</v>
+        <v>6.791276253337206</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.5296576970048</v>
+        <v>187.5232137459312</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4758110824359165</v>
+        <v>0.4759123758132462</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.316770342406</v>
+        <v>2830.29698926084</v>
       </c>
       <c r="E27" t="n">
-        <v>58.39508430682083</v>
+        <v>58.40992452260254</v>
       </c>
       <c r="F27" t="n">
-        <v>7.028608675832539</v>
+        <v>7.028470310999818</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1918417823036</v>
+        <v>172.1983248951651</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5487819133481899</v>
+        <v>0.5489047277315429</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.716281851457</v>
+        <v>2791.722440826913</v>
       </c>
       <c r="E28" t="n">
-        <v>16.01272180353227</v>
+        <v>16.01508291463108</v>
       </c>
       <c r="F28" t="n">
-        <v>6.879729391817258</v>
+        <v>6.879643981471157</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.6985141258305</v>
+        <v>183.6950983020365</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4758110824359165</v>
+        <v>0.4759123758132462</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.009861215568</v>
+        <v>2821.996357351803</v>
       </c>
       <c r="E29" t="n">
-        <v>74.40780611035311</v>
+        <v>74.42500743723362</v>
       </c>
       <c r="F29" t="n">
-        <v>7.010501354534291</v>
+        <v>7.010376478524436</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.3080231091766</v>
+        <v>108.3107645284031</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1354178458164809</v>
+        <v>0.1354304435439131</v>
       </c>
       <c r="D30" t="n">
-        <v>2640.936535408754</v>
+        <v>2640.914198666261</v>
       </c>
       <c r="E30" t="n">
-        <v>74.40780611035311</v>
+        <v>74.42500743723362</v>
       </c>
       <c r="F30" t="n">
-        <v>7.132549375152021</v>
+        <v>7.13244958792975</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87194409259088</v>
+        <v>97.87074959983042</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.37227025719574</v>
+        <v>84.3651758190972</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05645738873190095</v>
+        <v>0.0564416237771012</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.065418946431</v>
+        <v>2530.007483596999</v>
       </c>
       <c r="E31" t="n">
-        <v>49.02847525880087</v>
+        <v>49.03702684137231</v>
       </c>
       <c r="F31" t="n">
-        <v>7.21549494606999</v>
+        <v>7.215453756214318</v>
       </c>
       <c r="G31" t="n">
-        <v>94.76581504995885</v>
+        <v>94.76384494777317</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.6378205029925</v>
+        <v>63.66636365931504</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02355478385441557</v>
+        <v>0.02358515146558713</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.065418946431</v>
+        <v>2530.007483596999</v>
       </c>
       <c r="E32" t="n">
-        <v>12.82038009381161</v>
+        <v>12.83695250621903</v>
       </c>
       <c r="F32" t="n">
-        <v>7.598058660860364</v>
+        <v>7.597316985058369</v>
       </c>
       <c r="G32" t="n">
-        <v>96.37743009412452</v>
+        <v>96.37275206926674</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.62293956480352</v>
+        <v>25.62851909978525</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00328957251998575</v>
+        <v>0.00329066168477022</v>
       </c>
       <c r="D33" t="n">
-        <v>2434.995256008463</v>
+        <v>2434.74828141331</v>
       </c>
       <c r="E33" t="n">
-        <v>12.82038009381161</v>
+        <v>12.83695250621903</v>
       </c>
       <c r="F33" t="n">
-        <v>8.16635375077149</v>
+        <v>8.165381651813822</v>
       </c>
       <c r="G33" t="n">
-        <v>95.38405611771861</v>
+        <v>95.37349597902023</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.62293956480352</v>
+        <v>25.62851909978525</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00328957251998575</v>
+        <v>0.00329066168477022</v>
       </c>
       <c r="D34" t="n">
-        <v>107.4341381511161</v>
+        <v>107.4574691415582</v>
       </c>
       <c r="E34" t="n">
-        <v>12.82038009381161</v>
+        <v>12.83695250621903</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.64625842566392</v>
+        <v>27.65184148042772</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>116.5301134313433</v>
+        <v>116.5534435032679</v>
       </c>
       <c r="E35" t="n">
-        <v>12.82038009381161</v>
+        <v>12.83695250621903</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.9036895308766</v>
+        <v>498.8940730197794</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3465.82263690587</v>
+        <v>3465.801424406694</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623162006869049</v>
+        <v>7.623139172870884</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.9036895308766</v>
+        <v>513.8940730197794</v>
       </c>
       <c r="C42" t="n">
-        <v>6.771458930114417</v>
+        <v>6.772699900581689</v>
       </c>
       <c r="D42" t="n">
-        <v>3447.572702734015</v>
+        <v>3447.535553774314</v>
       </c>
       <c r="E42" t="n">
-        <v>8.973630933961937</v>
+        <v>8.973948883990682</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x6.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6565421584436053</v>
+        <v>0.6996845229676304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6868822921326465</v>
+        <v>0.7166445130903197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9558292096964087</v>
+        <v>0.976334165945743</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.26654920025663</v>
+        <v>60.76663688778986</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.12813477538266</v>
+        <v>37.10938551712746</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490906766622586</v>
+        <v>0.8488879424490376</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.4770410069218</v>
+        <v>14.67191879788331</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7954471447526543</v>
+        <v>0.7855779628283485</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.43853556373984</v>
+        <v>6.23540427244281</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7889114023851735</v>
+        <v>0.7636497524873594</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.222837854212332</v>
+        <v>2.749928300336277</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3594894129729273</v>
+        <v>0.5145722598758921</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1167645908790524</v>
+        <v>0.1644498555127283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1302679671748928</v>
+        <v>0.1828453881033575</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8963415443666872</v>
+        <v>0.8993929637414165</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42020.93374676334</v>
+        <v>41848.22550335822</v>
       </c>
       <c r="C2" t="n">
-        <v>42445.38762299328</v>
+        <v>42270.93485187699</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91603.53057289679</v>
+        <v>89349.98555073465</v>
       </c>
       <c r="C3" t="n">
-        <v>92528.81876050182</v>
+        <v>90252.51065730774</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39938.47670257388</v>
+        <v>40682.56556982053</v>
       </c>
       <c r="C4" t="n">
-        <v>40341.89565916553</v>
+        <v>41093.50057557629</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.2801631031157</v>
+        <v>517.6060142983451</v>
       </c>
       <c r="C5" t="n">
-        <v>521.4951142455714</v>
+        <v>522.8343578771163</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33334.47877229429</v>
+        <v>33882.36779567587</v>
       </c>
       <c r="C6" t="n">
-        <v>33671.19067908514</v>
+        <v>34224.61393502613</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37599.6955653442</v>
+        <v>38589.75229325106</v>
       </c>
       <c r="C7" t="n">
-        <v>37979.49047004464</v>
+        <v>38979.54777096067</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.11950570887668</v>
+        <v>61.55026015194969</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.71596072038872</v>
+        <v>74.79416839693162</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.115996282701577</v>
+        <v>6.607034163085666</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.8627383237327</v>
+        <v>463.1550396775464</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.1591094077839</v>
+        <v>868.4898467734328</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.9095111034885</v>
+        <v>309.1695200757768</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7377757847958</v>
+        <v>697.3840659538656</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.2017376577076</v>
+        <v>237.2015023718256</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.2553432604202</v>
+        <v>619.4766985977201</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.2806987032165</v>
+        <v>236.278663647538</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.2666635210234</v>
+        <v>618.485479844997</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.4617439056667</v>
+        <v>175.5056314019785</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.4309283120007</v>
+        <v>553.6005337315703</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.2552508343444</v>
+        <v>105.5157106179634</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>479.4272762841763</v>
+        <v>479.700916881368</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.2371264704017</v>
+        <v>504.2535750842467</v>
       </c>
       <c r="C3" t="n">
-        <v>7.817229755634916</v>
+        <v>8.382791833128231</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.583564775525</v>
+        <v>3405.493564126337</v>
       </c>
       <c r="E3" t="n">
-        <v>63.7991251910747</v>
+        <v>63.59932928286597</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6322386120719</v>
+        <v>301.1220024534521</v>
       </c>
       <c r="C4" t="n">
-        <v>8.187804528354327</v>
+        <v>8.724480675000702</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.859987004593</v>
+        <v>2747.451569388308</v>
       </c>
       <c r="E4" t="n">
-        <v>63.7991251910747</v>
+        <v>63.59932928286597</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.5071457112393</v>
+        <v>299.6008444297813</v>
       </c>
       <c r="C5" t="n">
-        <v>8.187804528354327</v>
+        <v>8.724480675000702</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.922258171965</v>
+        <v>1342.550729200255</v>
       </c>
       <c r="E5" t="n">
-        <v>63.7991251910747</v>
+        <v>63.59932928286597</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.2476289838386</v>
+        <v>165.2449480559521</v>
       </c>
       <c r="C6" t="n">
-        <v>8.187804528354327</v>
+        <v>8.724480675000702</v>
       </c>
       <c r="D6" t="n">
-        <v>693.939267965155</v>
+        <v>702.8801271271479</v>
       </c>
       <c r="E6" t="n">
-        <v>63.7991251910747</v>
+        <v>63.59932928286597</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.880393236599</v>
+        <v>163.7708177741443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6483705881374975</v>
+        <v>0.6798338808318791</v>
       </c>
       <c r="D7" t="n">
-        <v>683.6484974181091</v>
+        <v>691.878682129895</v>
       </c>
       <c r="E7" t="n">
-        <v>63.7991251910747</v>
+        <v>63.59932928286597</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.0198663218351</v>
+        <v>176.6710484907411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6415928222150438</v>
+        <v>0.6731700192238417</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.722440826913</v>
+        <v>2793.382622122558</v>
       </c>
       <c r="E8" t="n">
-        <v>16.01508291463108</v>
+        <v>16.24141989843743</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.8803931062741</v>
+        <v>163.7708176398825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6483705881374975</v>
+        <v>0.6798338808318791</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.491620011147</v>
+        <v>2761.514610861353</v>
       </c>
       <c r="E9" t="n">
-        <v>16.01508291463108</v>
+        <v>16.24141989843743</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.625475736051</v>
+        <v>162.9975006196515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6483705881374975</v>
+        <v>0.6798338808318791</v>
       </c>
       <c r="D10" t="n">
-        <v>682.5419717074116</v>
+        <v>688.5179813681769</v>
       </c>
       <c r="E10" t="n">
-        <v>79.81420810570579</v>
+        <v>79.84074918130339</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.625475736051</v>
+        <v>162.9975006196515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6483705881374975</v>
+        <v>0.6798338808318791</v>
       </c>
       <c r="D11" t="n">
-        <v>682.5419717074116</v>
+        <v>688.5179813681769</v>
       </c>
       <c r="E11" t="n">
-        <v>87.27189185326513</v>
+        <v>88.34984136997915</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6483705881374975</v>
+        <v>0.6798338808318791</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7080667144582</v>
+        <v>251.7344856804549</v>
       </c>
       <c r="E12" t="n">
-        <v>87.27848612929428</v>
+        <v>88.35400623546613</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.35473262051977</v>
+        <v>48.85833465199948</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>211.4144089777508</v>
+        <v>205.1596753324336</v>
       </c>
       <c r="E13" t="n">
-        <v>74.42356149834731</v>
+        <v>79.84065403198247</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.35473262051977</v>
+        <v>48.85833465199948</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>211.4144089777508</v>
+        <v>205.1596753324336</v>
       </c>
       <c r="E14" t="n">
-        <v>74.42356149834731</v>
+        <v>79.84065403198247</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.06834141358507</v>
+        <v>80.49308622921853</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05362107319253</v>
+        <v>0.04836910396344399</v>
       </c>
       <c r="D15" t="n">
-        <v>347.8983172284366</v>
+        <v>337.0826234584203</v>
       </c>
       <c r="E15" t="n">
-        <v>61.58793892100761</v>
+        <v>61.76069329574101</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.21479320121887</v>
+        <v>54.6987689860851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05362123485853723</v>
+        <v>0.04836917589460996</v>
       </c>
       <c r="D16" t="n">
-        <v>231.1869817564479</v>
+        <v>229.0239542517794</v>
       </c>
       <c r="E16" t="n">
-        <v>61.58660899212829</v>
+        <v>61.76054523224526</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.01061653904833</v>
+        <v>67.50070791722516</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>288.9474514489954</v>
+        <v>282.6254640494217</v>
       </c>
       <c r="E19" t="n">
         <v>80.50666466849297</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.3119764965534</v>
+        <v>108.9532959937414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1354283901176886</v>
+        <v>0.1384217051862169</v>
       </c>
       <c r="D20" t="n">
-        <v>2640.917715362747</v>
+        <v>2632.413344571592</v>
       </c>
       <c r="E20" t="n">
-        <v>25.38801698599073</v>
+        <v>28.49566519028003</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.8055174872679</v>
+        <v>107.4452190543462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1286569706118042</v>
+        <v>0.1315006199269061</v>
       </c>
       <c r="D21" t="n">
-        <v>447.9040418833549</v>
+        <v>450.608514387406</v>
       </c>
       <c r="E21" t="n">
-        <v>25.38801698599073</v>
+        <v>28.49566519028003</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.72373845601894</v>
+        <v>78.32049698085878</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>337.9902929153513</v>
+        <v>327.9279208588557</v>
       </c>
       <c r="E22" t="n">
         <v>639.0893128347165</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.55932365402244</v>
+        <v>50.36911908534015</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.36590093957108</v>
+        <v>81.76918300899598</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05644323493950526</v>
+        <v>0.05091484627730947</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.009457897757</v>
+        <v>2510.968965549196</v>
       </c>
       <c r="E25" t="n">
-        <v>36.1999583251463</v>
+        <v>33.2651640561553</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.323230405209</v>
+        <v>501.572278020975</v>
       </c>
       <c r="C26" t="n">
-        <v>7.20857533993456</v>
+        <v>7.822620606722738</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.583564775525</v>
+        <v>3405.493564126337</v>
       </c>
       <c r="E26" t="n">
-        <v>58.40992452260254</v>
+        <v>63.59932928286597</v>
       </c>
       <c r="F26" t="n">
-        <v>6.791276253337206</v>
+        <v>6.744041941292635</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.5232137459312</v>
+        <v>184.5566657008897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4759123758132462</v>
+        <v>0.507065008627035</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.29698926084</v>
+        <v>2822.006506392146</v>
       </c>
       <c r="E27" t="n">
-        <v>58.40992452260254</v>
+        <v>63.59932928286597</v>
       </c>
       <c r="F27" t="n">
-        <v>7.028470310999818</v>
+        <v>6.982032835448694</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1983248951651</v>
+        <v>173.9393667291457</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5489047277315429</v>
+        <v>0.5821351033112518</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.722440826913</v>
+        <v>2793.382622122558</v>
       </c>
       <c r="E28" t="n">
-        <v>16.01508291463108</v>
+        <v>16.24141989843743</v>
       </c>
       <c r="F28" t="n">
-        <v>6.879643981471157</v>
+        <v>6.857321623683796</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.6950983020365</v>
+        <v>181.9045324022186</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4759123758132462</v>
+        <v>0.507065008627035</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.996357351803</v>
+        <v>2816.183758881461</v>
       </c>
       <c r="E29" t="n">
-        <v>74.42500743723362</v>
+        <v>79.84074918130339</v>
       </c>
       <c r="F29" t="n">
-        <v>7.010376478524436</v>
+        <v>6.969274238075138</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.3107645284031</v>
+        <v>108.9555098097843</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1354304435439131</v>
+        <v>0.1384201810668768</v>
       </c>
       <c r="D30" t="n">
-        <v>2640.914198666261</v>
+        <v>2632.418965234972</v>
       </c>
       <c r="E30" t="n">
-        <v>74.42500743723362</v>
+        <v>79.84074918130339</v>
       </c>
       <c r="F30" t="n">
-        <v>7.13244958792975</v>
+        <v>7.100542319246365</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87074959983042</v>
+        <v>97.44443983031745</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.3651758190972</v>
+        <v>81.77242853939771</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0564416237771012</v>
+        <v>0.05092146138327773</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.007483596999</v>
+        <v>2510.978171339831</v>
       </c>
       <c r="E31" t="n">
-        <v>49.03702684137231</v>
+        <v>51.34521994171768</v>
       </c>
       <c r="F31" t="n">
-        <v>7.215453756214318</v>
+        <v>7.206441597272676</v>
       </c>
       <c r="G31" t="n">
-        <v>94.76384494777317</v>
+        <v>94.13956837247521</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.66636365931504</v>
+        <v>71.44288550976472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02358515146558713</v>
+        <v>0.03320001911367969</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.007483596999</v>
+        <v>2510.978171339831</v>
       </c>
       <c r="E32" t="n">
-        <v>12.83695250621903</v>
+        <v>18.08010879973721</v>
       </c>
       <c r="F32" t="n">
-        <v>7.597316985058369</v>
+        <v>7.391491806789117</v>
       </c>
       <c r="G32" t="n">
-        <v>96.37275206926674</v>
+        <v>94.95236113216481</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.62851909978525</v>
+        <v>27.32363356039912</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00329066168477022</v>
+        <v>0.003636479127864674</v>
       </c>
       <c r="D33" t="n">
-        <v>2434.74828141331</v>
+        <v>2358.881282388795</v>
       </c>
       <c r="E33" t="n">
-        <v>12.83695250621903</v>
+        <v>18.08010879973721</v>
       </c>
       <c r="F33" t="n">
-        <v>8.165381651813822</v>
+        <v>7.869012485072356</v>
       </c>
       <c r="G33" t="n">
-        <v>95.37349597902023</v>
+        <v>92.12576447674542</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.62851909978525</v>
+        <v>27.32363356039912</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00329066168477022</v>
+        <v>0.003636479127864674</v>
       </c>
       <c r="D34" t="n">
-        <v>107.4574691415582</v>
+        <v>114.5451358242577</v>
       </c>
       <c r="E34" t="n">
-        <v>12.83695250621903</v>
+        <v>18.08010879973721</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.65184148042772</v>
+        <v>29.34797233376793</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>116.5534435032679</v>
+        <v>123.6407589388221</v>
       </c>
       <c r="E35" t="n">
-        <v>12.83695250621903</v>
+        <v>18.08010879973721</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
